--- a/AYUDANTIA/PARCIAL 1 P3.xlsx
+++ b/AYUDANTIA/PARCIAL 1 P3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\4to Sync\4to-Semestre\AYUDANTIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0383FA-254A-432F-B451-FCC3FB497405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CCF325-6F89-4862-AA1D-E6C916950ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="2100" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notas_Deberes" sheetId="1" r:id="rId1"/>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
@@ -870,33 +870,33 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>50</v>
       </c>
       <c r="E2">
-        <v>48.7</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>47.8+0.3</f>
-        <v>48.099999999999994</v>
-      </c>
-      <c r="H2">
-        <v>50</v>
-      </c>
-      <c r="I2">
+        <f>31.25+0.1</f>
+        <v>31.35</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
         <f>AVERAGE(D2:H2)</f>
-        <v>39.36</v>
+        <v>25.07</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -905,156 +905,154 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2">
-        <f>48.7+0.1</f>
-        <v>48.800000000000004</v>
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>48.7</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>47.8</v>
+      <c r="G3" s="2">
+        <f>47.8+0.3</f>
+        <v>48.099999999999994</v>
       </c>
       <c r="H3">
         <v>50</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I25" si="0">AVERAGE(D3:H3)</f>
-        <v>37.320000000000007</v>
+        <f>AVERAGE(D3:H3)</f>
+        <v>39.36</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>48.4</v>
-      </c>
-      <c r="F4">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>49.9</v>
-      </c>
-      <c r="H4">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>44.42</v>
+        <v>37.4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f>AVERAGE(D4:H4)</f>
+        <v>27.48</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>50</v>
       </c>
       <c r="E5">
-        <v>48.4</v>
+        <v>38.25</v>
       </c>
       <c r="F5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>49.9</v>
-      </c>
-      <c r="H5" s="2">
-        <f>34.8+0.1</f>
-        <v>34.9</v>
+        <v>48.6</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>46.440000000000005</v>
+        <f>AVERAGE(D5:H5)</f>
+        <v>43.37</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>45</v>
-      </c>
-      <c r="F6" s="2">
-        <f>37.5+0.1</f>
-        <v>37.6</v>
+        <v>38.25</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>44.9</v>
+        <v>48.6</v>
       </c>
       <c r="H6">
-        <v>47.5</v>
+        <v>30</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f>AVERAGE(D6:H6)</f>
+        <v>42.37</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>45</v>
       </c>
       <c r="F7" s="2">
-        <f>37.5+0.1</f>
-        <v>37.6</v>
+        <f>40+0.1</f>
+        <v>40.1</v>
       </c>
       <c r="G7">
-        <v>44.9</v>
-      </c>
-      <c r="H7">
-        <v>47.5</v>
+        <v>40</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f>AVERAGE(D7:H7)</f>
+        <v>33.019999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1083,113 +1081,113 @@
         <v>50</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D8:H8)</f>
         <v>49.4</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>50</v>
       </c>
       <c r="E9" s="2">
-        <f>48.5+0.1</f>
-        <v>48.6</v>
+        <f>41.23+0.2</f>
+        <v>41.43</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>47.5</v>
       </c>
       <c r="G9">
-        <v>48.5</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>42.5</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>49.42</v>
+        <f>AVERAGE(D9:H9)</f>
+        <v>46.286000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>50</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>47.25</v>
       </c>
       <c r="G10">
         <v>47.5</v>
       </c>
       <c r="H10">
-        <v>50</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>29.5</v>
+        <v>48.2</v>
+      </c>
+      <c r="I10">
+        <f>AVERAGE(D10:H10)</f>
+        <v>48.589999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>40</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>48.4</v>
       </c>
       <c r="F11">
-        <v>37.5</v>
+        <v>49</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>49.9</v>
       </c>
       <c r="H11">
-        <v>48.2</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>38.94</v>
+        <f>AVERAGE(D11:H11)</f>
+        <v>44.42</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>42</v>
@@ -1204,313 +1202,314 @@
         <v>48.2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>40.94</v>
+        <f>AVERAGE(D12:H12)</f>
+        <v>38.94</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>50</v>
       </c>
-      <c r="E13">
-        <v>50</v>
-      </c>
-      <c r="F13">
-        <v>47.25</v>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
       </c>
       <c r="G13">
         <v>47.5</v>
       </c>
       <c r="H13">
-        <v>48.2</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>48.589999999999996</v>
+        <v>50</v>
+      </c>
+      <c r="I13" s="3">
+        <f>AVERAGE(D13:H13)</f>
+        <v>29.5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>50</v>
-      </c>
-      <c r="E14">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>47.25</v>
+        <v>40</v>
+      </c>
+      <c r="E14" s="2">
+        <f>48.7+0.1</f>
+        <v>48.800000000000004</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>47.5</v>
+        <v>47.8</v>
       </c>
       <c r="H14">
-        <v>48.2</v>
+        <v>50</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>48.589999999999996</v>
+        <f>AVERAGE(D14:H14)</f>
+        <v>37.320000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
         <v>13</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
       </c>
       <c r="D15">
         <v>40</v>
       </c>
       <c r="E15">
+        <v>48.5</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>35.65</v>
+      </c>
+      <c r="H15">
+        <v>42.5</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE(D15:H15)</f>
+        <v>41.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2">
+        <f>39.52+0.1</f>
+        <v>39.620000000000005</v>
+      </c>
+      <c r="F16">
+        <v>46.55</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>45.9</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(D16:H16)</f>
+        <v>46.414000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
         <v>45</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F17" s="2">
+        <f>37.5+0.1</f>
+        <v>37.6</v>
+      </c>
+      <c r="G17">
+        <v>44.9</v>
+      </c>
+      <c r="H17">
+        <v>47.5</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGE(D17:H17)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2">
+        <f>37.5+0.1</f>
+        <v>37.6</v>
+      </c>
+      <c r="G18">
+        <v>44.9</v>
+      </c>
+      <c r="H18">
+        <v>47.5</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(D18:H18)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>47.25</v>
+      </c>
+      <c r="G19">
+        <v>47.5</v>
+      </c>
+      <c r="H19">
+        <v>48.2</v>
+      </c>
+      <c r="I19">
+        <f>AVERAGE(D19:H19)</f>
+        <v>48.589999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>42</v>
+      </c>
+      <c r="F20">
+        <v>37.5</v>
+      </c>
+      <c r="G20">
+        <v>27</v>
+      </c>
+      <c r="H20">
+        <v>48.2</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGE(D20:H20)</f>
+        <v>40.94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>48.4</v>
+      </c>
+      <c r="F21">
+        <v>49</v>
+      </c>
+      <c r="G21">
+        <v>49.9</v>
+      </c>
+      <c r="H21" s="2">
+        <f>34.8+0.1</f>
+        <v>34.9</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(D21:H21)</f>
+        <v>46.440000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2">
         <f>40+0.1</f>
         <v>40.1</v>
       </c>
-      <c r="G15">
+      <c r="G22">
         <v>40</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
+      <c r="I22">
+        <f>AVERAGE(D22:H22)</f>
         <v>33.019999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>45</v>
-      </c>
-      <c r="F16" s="2">
-        <f>40+0.1</f>
-        <v>40.1</v>
-      </c>
-      <c r="G16">
-        <v>40</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>33.019999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>50</v>
-      </c>
-      <c r="E17">
-        <v>50</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>37.4</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>27.48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="E18" s="2">
-        <f>41.23+0.2</f>
-        <v>41.43</v>
-      </c>
-      <c r="F18">
-        <v>47.5</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-      <c r="H18">
-        <v>42.5</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>46.286000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>50</v>
-      </c>
-      <c r="E19">
-        <v>44</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <f>31.25+0.1</f>
-        <v>31.35</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="0"/>
-        <v>25.07</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>48.5</v>
-      </c>
-      <c r="F20">
-        <v>40</v>
-      </c>
-      <c r="G20">
-        <v>35.65</v>
-      </c>
-      <c r="H20">
-        <v>42.5</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>41.33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <v>48.5</v>
-      </c>
-      <c r="F21">
-        <v>40</v>
-      </c>
-      <c r="G21">
-        <v>35.65</v>
-      </c>
-      <c r="H21">
-        <v>42.5</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>41.33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>50</v>
-      </c>
-      <c r="E22" s="2">
-        <f>39.52+0.1</f>
-        <v>39.620000000000005</v>
-      </c>
-      <c r="F22">
-        <v>46.55</v>
-      </c>
-      <c r="G22">
-        <v>50</v>
-      </c>
-      <c r="H22">
-        <v>45.9</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>46.414000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1540,73 +1539,74 @@
         <v>35</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D23:H23)</f>
         <v>35.06</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>50</v>
       </c>
-      <c r="E24">
-        <v>38.25</v>
+      <c r="E24" s="2">
+        <f>48.5+0.1</f>
+        <v>48.6</v>
       </c>
       <c r="F24">
         <v>50</v>
       </c>
       <c r="G24">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
-        <v>43.37</v>
+        <f>AVERAGE(D24:H24)</f>
+        <v>49.42</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E25">
-        <v>38.25</v>
+        <v>48.5</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G25">
-        <v>48.6</v>
+        <v>35.65</v>
       </c>
       <c r="H25">
-        <v>30</v>
+        <v>42.5</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
-        <v>42.37</v>
+        <f>AVERAGE(D25:H25)</f>
+        <v>41.33</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
-    <sortCondition ref="C2:C26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I25">
+    <sortCondition ref="B2:B25"/>
   </sortState>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
